--- a/derivatives/h1-1_palm/left/h1-1_left_results.xlsx
+++ b/derivatives/h1-1_palm/left/h1-1_left_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/h1-1_palm/left/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F12FCEF3-AAA1-2D46-82D2-3B1D5A444F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8F2FF97B-0F40-9548-B16E-59668EDBEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020"/>
   </bookViews>
@@ -949,533 +949,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
+      <c r="B4">
+        <v>-1.0362</v>
+      </c>
+      <c r="C4">
+        <v>-1.6943999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-1.1114999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.76959999999999995</v>
+      </c>
+      <c r="F4">
+        <v>-1.5343</v>
+      </c>
+      <c r="G4">
+        <v>-2.4613</v>
+      </c>
+      <c r="H4">
+        <v>-3.2860999999999998</v>
+      </c>
+      <c r="I4">
+        <v>-1.3832</v>
+      </c>
+      <c r="J4">
+        <v>-0.30940000000000001</v>
+      </c>
+      <c r="K4">
+        <v>-0.40629999999999999</v>
+      </c>
+      <c r="L4">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>-1.7146999999999999</v>
+      </c>
+      <c r="N4">
+        <v>-1.9569000000000001</v>
+      </c>
+      <c r="O4">
+        <v>2.1899999999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-1.0362</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>-1.6943999999999999</v>
+        <v>0.84450000000000003</v>
       </c>
       <c r="C5">
-        <v>-1.1114999999999999</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="D5">
-        <v>-0.76959999999999995</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="E5">
-        <v>-1.5343</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="F5">
-        <v>-2.4613</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="G5">
-        <v>-3.2860999999999998</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="H5">
-        <v>-1.3832</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="I5">
-        <v>-0.30940000000000001</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="J5">
-        <v>-0.40629999999999999</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="K5">
-        <v>2.8400000000000002E-2</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="L5">
-        <v>-1.7146999999999999</v>
+        <v>0.48370000000000002</v>
       </c>
       <c r="M5">
-        <v>-1.9569000000000001</v>
+        <v>0.9546</v>
       </c>
       <c r="N5">
-        <v>2.1899999999999999E-2</v>
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.48670000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.999</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.9869</v>
+      </c>
+      <c r="L6">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0.94920000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.84450000000000003</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.95040000000000002</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.86550000000000005</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.77639999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.93700000000000006</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.99329999999999996</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.99919999999999998</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.91249999999999998</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0.62029999999999996</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.65059999999999996</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.48370000000000002</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9546</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.97270000000000001</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.48670000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.999</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="D9">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="J9">
-        <v>0.9869</v>
-      </c>
-      <c r="K9">
-        <v>0.94830000000000003</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0.94920000000000004</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.0362</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.6943999999999999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.1114999999999999</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>1.5343</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2.4613</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3.2860999999999998</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.3832</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.30940000000000001</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>-2.8400000000000002E-2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>1.7146999999999999</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>1.9569000000000001</v>
+      </c>
+      <c r="O11">
+        <v>-2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="C12">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.1346</v>
+      </c>
+      <c r="E12">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="F12">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="H12">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I12">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="K12">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="L12">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="M12">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.51339999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="G13">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="H13">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="I13">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="J13">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="K13">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="L13">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="M13">
+        <v>0.2797</v>
+      </c>
+      <c r="N13">
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.95140000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1.0362</v>
-      </c>
-      <c r="B16">
-        <v>1.6943999999999999</v>
-      </c>
-      <c r="C16">
-        <v>1.1114999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.76959999999999995</v>
-      </c>
-      <c r="E16">
-        <v>1.5343</v>
-      </c>
-      <c r="F16">
-        <v>2.4613</v>
-      </c>
-      <c r="G16">
-        <v>3.2860999999999998</v>
-      </c>
-      <c r="H16">
-        <v>1.3832</v>
-      </c>
-      <c r="I16">
-        <v>0.30940000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.40629999999999999</v>
-      </c>
-      <c r="K16">
-        <v>-2.8400000000000002E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.7146999999999999</v>
-      </c>
-      <c r="M16">
-        <v>1.9569000000000001</v>
-      </c>
-      <c r="N16">
-        <v>-2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="B18">
-        <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="C18">
-        <v>0.1346</v>
-      </c>
-      <c r="D18">
-        <v>0.22370000000000001</v>
-      </c>
-      <c r="E18">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="F18">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="G18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H18">
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.37980000000000003</v>
-      </c>
-      <c r="J18">
-        <v>0.34949999999999998</v>
-      </c>
-      <c r="K18">
-        <v>0.51639999999999997</v>
-      </c>
-      <c r="L18">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="M18">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="N18">
-        <v>0.51339999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.61009999999999998</v>
-      </c>
-      <c r="B20">
-        <v>0.28710000000000002</v>
-      </c>
-      <c r="C20">
-        <v>0.57340000000000002</v>
-      </c>
-      <c r="D20">
-        <v>0.73360000000000003</v>
-      </c>
-      <c r="E20">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="F20">
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="G20">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="H20">
-        <v>0.43519999999999998</v>
-      </c>
-      <c r="I20">
-        <v>0.88959999999999995</v>
-      </c>
-      <c r="J20">
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="K20">
-        <v>0.95289999999999997</v>
-      </c>
-      <c r="L20">
-        <v>0.2797</v>
-      </c>
-      <c r="M20">
-        <v>0.19420000000000001</v>
-      </c>
-      <c r="N20">
-        <v>0.95140000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B14">
         <v>0.94989999999999997</v>
       </c>
-      <c r="B22">
+      <c r="C14">
         <v>0.55410000000000004</v>
       </c>
-      <c r="C22">
+      <c r="D14">
         <v>0.92390000000000005</v>
       </c>
-      <c r="D22">
+      <c r="E14">
         <v>0.99390000000000001</v>
       </c>
-      <c r="E22">
+      <c r="F14">
         <v>0.67290000000000005</v>
       </c>
-      <c r="F22">
+      <c r="G14">
         <v>0.1484</v>
       </c>
-      <c r="G22">
+      <c r="H14">
         <v>0.02</v>
       </c>
-      <c r="H22">
+      <c r="I14">
         <v>0.78090000000000004</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>0.5403</v>
       </c>
-      <c r="M22">
+      <c r="N14">
         <v>0.38040000000000002</v>
       </c>
-      <c r="N22">
+      <c r="O14">
         <v>1</v>
       </c>
     </row>
